--- a/Database/Datatabse.xlsx
+++ b/Database/Datatabse.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Profile" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Book_Service" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Services" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="Cancel_Request" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="Rating" sheetId="4" r:id="rId7"/>
     <sheet state="visible" name="Blocklist" sheetId="5" r:id="rId8"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="74">
   <si>
     <t>Profile</t>
   </si>
@@ -56,7 +56,7 @@
     <t>email_address</t>
   </si>
   <si>
-    <t>string</t>
+    <t>string (varchar(255))</t>
   </si>
   <si>
     <t>mobile_number</t>
@@ -98,7 +98,7 @@
     <t>avatar</t>
   </si>
   <si>
-    <t>Book Service</t>
+    <t>Services</t>
   </si>
   <si>
     <t>Field</t>
@@ -113,7 +113,7 @@
     <t>s_id</t>
   </si>
   <si>
-    <t>foreign key</t>
+    <t>foreign key-&gt;profileTable</t>
   </si>
   <si>
     <t>customer_id</t>
@@ -128,6 +128,9 @@
     <t>time</t>
   </si>
   <si>
+    <t>date (date &amp; time)</t>
+  </si>
+  <si>
     <t>duration</t>
   </si>
   <si>
@@ -149,6 +152,9 @@
     <t>Cancel Request</t>
   </si>
   <si>
+    <t>foreign key-&gt;servicesTable</t>
+  </si>
+  <si>
     <t>reasons</t>
   </si>
   <si>
@@ -170,6 +176,9 @@
     <t>Fields</t>
   </si>
   <si>
+    <t>foreign key-&gt;serviesTable</t>
+  </si>
+  <si>
     <t>inside_cabinets</t>
   </si>
   <si>
@@ -209,13 +218,16 @@
     <t>profile_Id</t>
   </si>
   <si>
+    <t>foreign key-&gt; profileTable</t>
+  </si>
+  <si>
     <t>street_name</t>
   </si>
   <si>
     <t>house_number</t>
   </si>
   <si>
-    <t>post_code</t>
+    <t>postal_code</t>
   </si>
   <si>
     <t>city</t>
@@ -311,14 +323,19 @@
     <font>
       <sz val="14.0"/>
       <color rgb="FF252525"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
       <sz val="14.0"/>
+      <color theme="1"/>
       <name val="Nunito"/>
     </font>
     <font>
+      <b/>
       <sz val="14.0"/>
+      <color theme="8"/>
+      <name val="Nunito"/>
     </font>
     <font/>
   </fonts>
@@ -490,7 +507,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="68">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -639,24 +656,36 @@
     <xf borderId="2" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
+    <xf borderId="2" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
     <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
@@ -669,7 +698,7 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
@@ -920,45 +949,56 @@
     <col customWidth="1" min="1" max="1" width="28.29"/>
     <col customWidth="1" min="2" max="2" width="27.86"/>
     <col customWidth="1" min="3" max="3" width="27.29"/>
-    <col customWidth="1" min="4" max="4" width="23.71"/>
+    <col customWidth="1" min="4" max="4" width="30.0"/>
     <col customWidth="1" min="5" max="5" width="24.86"/>
   </cols>
   <sheetData>
-    <row r="3">
+    <row r="3" ht="42.0" customHeight="1">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
+    <row r="4">
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
     <row r="5">
-      <c r="B5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>4</v>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="5"/>
       <c r="C6" s="6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>7</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
     </row>
     <row r="7">
       <c r="B7" s="5"/>
       <c r="C7" s="6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>9</v>
@@ -968,11 +1008,11 @@
     </row>
     <row r="8">
       <c r="B8" s="5"/>
-      <c r="C8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>9</v>
+      <c r="C8" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="9"/>
@@ -980,21 +1020,21 @@
     <row r="9">
       <c r="B9" s="5"/>
       <c r="C9" s="10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="9"/>
     </row>
     <row r="10">
       <c r="B10" s="5"/>
-      <c r="C10" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>6</v>
+      <c r="C10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="9"/>
@@ -1002,55 +1042,56 @@
     <row r="11">
       <c r="B11" s="5"/>
       <c r="C11" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="9"/>
     </row>
     <row r="12">
-      <c r="B12" s="5"/>
-      <c r="C12" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>9</v>
+      <c r="B12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="9"/>
     </row>
     <row r="13">
-      <c r="B13" s="11" t="s">
-        <v>16</v>
-      </c>
+      <c r="B13" s="5"/>
       <c r="C13" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="9"/>
     </row>
     <row r="14">
       <c r="B14" s="5"/>
-      <c r="C14" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>9</v>
+      <c r="C14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="9"/>
     </row>
     <row r="15">
+      <c r="A15" s="12"/>
       <c r="B15" s="5"/>
       <c r="C15" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E15" s="8"/>
@@ -1058,41 +1099,36 @@
     </row>
     <row r="16">
       <c r="A16" s="12"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="6" t="s">
-        <v>20</v>
+      <c r="B16" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="9"/>
     </row>
     <row r="17">
-      <c r="A17" s="12"/>
-      <c r="B17" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="8"/>
+      <c r="B17" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="15"/>
       <c r="F17" s="9"/>
     </row>
     <row r="18">
-      <c r="B18" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="15"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
       <c r="F18" s="9"/>
     </row>
     <row r="19">
@@ -1114,7 +1150,6 @@
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
-      <c r="F21" s="9"/>
     </row>
     <row r="22">
       <c r="B22" s="16"/>
@@ -1158,21 +1193,15 @@
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
     </row>
-    <row r="29">
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
+    <row r="31">
+      <c r="H31" s="17"/>
     </row>
     <row r="32">
-      <c r="H32" s="17"/>
-    </row>
-    <row r="33">
-      <c r="G33" s="17"/>
+      <c r="G32" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B3:E4"/>
+    <mergeCell ref="B3:E3"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1191,49 +1220,63 @@
     <col customWidth="1" min="2" max="2" width="27.86"/>
     <col customWidth="1" min="3" max="3" width="37.71"/>
     <col customWidth="1" min="4" max="4" width="35.14"/>
-    <col customWidth="1" min="5" max="5" width="23.14"/>
+    <col customWidth="1" min="5" max="5" width="34.14"/>
     <col customWidth="1" min="6" max="6" width="24.29"/>
   </cols>
   <sheetData>
-    <row r="3">
+    <row r="3" ht="41.25" customHeight="1">
       <c r="B3" s="18" t="s">
         <v>26</v>
       </c>
     </row>
+    <row r="4">
+      <c r="B4" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>4</v>
+      </c>
+    </row>
     <row r="5">
-      <c r="B5" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>4</v>
+      <c r="B5" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="23" t="s">
+      <c r="B6" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="24" t="s">
-        <v>7</v>
+      <c r="E6" s="27" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="25" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D7" s="26" t="s">
         <v>6</v>
@@ -1243,102 +1286,91 @@
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="B8" s="28"/>
       <c r="C8" s="26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="27" t="s">
-        <v>31</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="E8" s="29"/>
     </row>
     <row r="9">
       <c r="B9" s="28"/>
       <c r="C9" s="26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E9" s="29"/>
     </row>
     <row r="10">
       <c r="B10" s="28"/>
       <c r="C10" s="26" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="E10" s="29"/>
+      <c r="F10" s="30"/>
     </row>
     <row r="11">
       <c r="B11" s="28"/>
       <c r="C11" s="26" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E11" s="29"/>
-      <c r="F11" s="30"/>
     </row>
     <row r="12">
       <c r="B12" s="28"/>
       <c r="C12" s="26" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E12" s="29"/>
     </row>
     <row r="13">
       <c r="B13" s="28"/>
       <c r="C13" s="26" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E13" s="29"/>
     </row>
     <row r="14">
       <c r="B14" s="28"/>
       <c r="C14" s="26" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="E14" s="29"/>
     </row>
     <row r="15">
-      <c r="B15" s="28"/>
-      <c r="C15" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="29"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="33"/>
     </row>
     <row r="16">
-      <c r="B16" s="31"/>
-      <c r="C16" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="33"/>
+      <c r="B16" s="34"/>
     </row>
     <row r="17">
-      <c r="B17" s="34"/>
+      <c r="B17" s="35"/>
     </row>
     <row r="18">
       <c r="B18" s="35"/>
@@ -1349,12 +1381,9 @@
     <row r="20">
       <c r="B20" s="35"/>
     </row>
-    <row r="21">
-      <c r="B21" s="35"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B3:E4"/>
+    <mergeCell ref="B3:E3"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1373,55 +1402,55 @@
     <col customWidth="1" min="2" max="2" width="27.71"/>
     <col customWidth="1" min="3" max="3" width="24.0"/>
     <col customWidth="1" min="4" max="4" width="22.0"/>
-    <col customWidth="1" min="5" max="5" width="15.43"/>
+    <col customWidth="1" min="5" max="5" width="44.29"/>
   </cols>
   <sheetData>
-    <row r="3">
+    <row r="3" ht="34.5" customHeight="1">
       <c r="B3" s="36" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>4</v>
+      <c r="B5" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="39" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" s="40"/>
-      <c r="C7" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="41" t="s">
+      <c r="B6" s="40"/>
+      <c r="C6" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="42"/>
+      <c r="E6" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B3:E4"/>
+    <mergeCell ref="B3:E3"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1439,8 +1468,8 @@
   <cols>
     <col customWidth="1" min="2" max="2" width="29.0"/>
     <col customWidth="1" min="3" max="3" width="22.0"/>
-    <col customWidth="1" min="4" max="4" width="19.71"/>
-    <col customWidth="1" min="5" max="5" width="28.43"/>
+    <col customWidth="1" min="4" max="4" width="27.43"/>
+    <col customWidth="1" min="5" max="5" width="35.43"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1449,31 +1478,45 @@
     <row r="2">
       <c r="B2" s="34"/>
     </row>
-    <row r="3">
+    <row r="3" ht="33.75" customHeight="1">
       <c r="B3" s="36" t="s">
-        <v>44</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>4</v>
+      <c r="B5" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="37" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D6" s="38" t="s">
         <v>6</v>
@@ -1483,38 +1526,27 @@
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="37" t="s">
-        <v>32</v>
-      </c>
+      <c r="B7" s="43"/>
       <c r="C7" s="38" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="D7" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="39" t="s">
-        <v>31</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E7" s="44"/>
     </row>
     <row r="8">
-      <c r="B8" s="43"/>
-      <c r="C8" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="44"/>
-    </row>
-    <row r="9">
-      <c r="B9" s="45"/>
-      <c r="C9" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="41" t="s">
+      <c r="B8" s="45"/>
+      <c r="C8" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="46"/>
+      <c r="E8" s="46"/>
+    </row>
+    <row r="11">
+      <c r="B11" s="34"/>
     </row>
     <row r="12">
       <c r="B12" s="34"/>
@@ -4480,12 +4512,9 @@
     <row r="999">
       <c r="B999" s="34"/>
     </row>
-    <row r="1000">
-      <c r="B1000" s="34"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B3:E4"/>
+    <mergeCell ref="B3:E3"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -4503,59 +4532,59 @@
   <cols>
     <col customWidth="1" min="2" max="2" width="28.29"/>
     <col customWidth="1" min="4" max="4" width="18.57"/>
-    <col customWidth="1" min="5" max="5" width="18.14"/>
+    <col customWidth="1" min="5" max="5" width="35.0"/>
   </cols>
   <sheetData>
-    <row r="3">
+    <row r="3" ht="41.25" customHeight="1">
       <c r="B3" s="36" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>4</v>
+      <c r="B5" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="38" t="s">
+      <c r="B6" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="39" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="48" t="s">
+      <c r="E6" s="48" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B3:E4"/>
+    <mergeCell ref="B3:E3"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -4573,48 +4602,60 @@
   <cols>
     <col customWidth="1" min="2" max="2" width="29.0"/>
     <col customWidth="1" min="3" max="4" width="26.86"/>
-    <col customWidth="1" min="5" max="5" width="20.57"/>
+    <col customWidth="1" min="5" max="5" width="35.57"/>
   </cols>
   <sheetData>
-    <row r="3">
+    <row r="3" ht="36.0" customHeight="1">
       <c r="B3" s="36" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>4</v>
+      <c r="B5" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="37" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="39" t="s">
-        <v>31</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="E6" s="44"/>
     </row>
     <row r="7">
       <c r="B7" s="37" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D7" s="38" t="s">
         <v>23</v>
@@ -4623,10 +4664,10 @@
     </row>
     <row r="8">
       <c r="B8" s="37" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D8" s="38" t="s">
         <v>23</v>
@@ -4635,10 +4676,10 @@
     </row>
     <row r="9">
       <c r="B9" s="37" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D9" s="38" t="s">
         <v>23</v>
@@ -4646,32 +4687,20 @@
       <c r="E9" s="44"/>
     </row>
     <row r="10">
-      <c r="B10" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="38" t="s">
+      <c r="B10" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="44"/>
-    </row>
-    <row r="11">
-      <c r="B11" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="42"/>
+      <c r="E10" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B3:E4"/>
+    <mergeCell ref="B3:E3"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -4690,56 +4719,66 @@
     <col customWidth="1" min="2" max="2" width="30.14"/>
     <col customWidth="1" min="3" max="3" width="22.57"/>
     <col customWidth="1" min="4" max="4" width="24.0"/>
-    <col customWidth="1" min="5" max="5" width="23.29"/>
+    <col customWidth="1" min="5" max="5" width="38.43"/>
   </cols>
   <sheetData>
-    <row r="3">
+    <row r="3" ht="36.0" customHeight="1">
       <c r="B3" s="18" t="s">
-        <v>60</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="51" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="51" t="s">
-        <v>61</v>
+      <c r="B5" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="52" t="s">
-        <v>62</v>
-      </c>
+      <c r="B6" s="54"/>
       <c r="C6" s="53" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="D6" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="39" t="s">
-        <v>31</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E6" s="55"/>
     </row>
     <row r="7">
       <c r="B7" s="54"/>
       <c r="C7" s="53" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D7" s="53" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E7" s="55"/>
     </row>
     <row r="8">
       <c r="B8" s="54"/>
-      <c r="C8" s="53" t="s">
-        <v>64</v>
+      <c r="C8" s="56" t="s">
+        <v>69</v>
       </c>
       <c r="D8" s="53" t="s">
         <v>6</v>
@@ -4747,28 +4786,18 @@
       <c r="E8" s="55"/>
     </row>
     <row r="9">
-      <c r="B9" s="54"/>
-      <c r="C9" s="53" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="55"/>
-    </row>
-    <row r="10">
-      <c r="B10" s="56"/>
-      <c r="C10" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" s="14" t="s">
+      <c r="B9" s="57"/>
+      <c r="C9" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="15"/>
+      <c r="E9" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B3:E4"/>
+    <mergeCell ref="B3:E3"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -4785,119 +4814,120 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="2" max="2" width="52.43"/>
-    <col customWidth="1" min="5" max="5" width="16.57"/>
+    <col customWidth="1" min="4" max="4" width="29.86"/>
+    <col customWidth="1" min="5" max="5" width="36.14"/>
   </cols>
   <sheetData>
-    <row r="3">
+    <row r="3" ht="36.0" customHeight="1">
       <c r="B3" s="18" t="s">
-        <v>67</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="57" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="57" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>4</v>
+      <c r="B5" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="61" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>7</v>
-      </c>
+      <c r="B6" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="63" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="64"/>
     </row>
     <row r="7">
-      <c r="B7" s="58" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" s="59" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="59" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="60"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="66"/>
     </row>
     <row r="8">
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="62"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="66"/>
     </row>
     <row r="9">
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="62"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="66"/>
     </row>
     <row r="10">
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="62"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="66"/>
     </row>
     <row r="11">
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="62"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="66"/>
     </row>
     <row r="12">
-      <c r="B12" s="61"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="62"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="66"/>
     </row>
     <row r="13">
-      <c r="B13" s="61"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="62"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="66"/>
     </row>
     <row r="14">
-      <c r="B14" s="61"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="62"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
     </row>
     <row r="15">
-      <c r="B15" s="63"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
     </row>
     <row r="16">
-      <c r="B16" s="63"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="63"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
     </row>
     <row r="17">
-      <c r="B17" s="63"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-    </row>
-    <row r="18">
-      <c r="B18" s="63"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="63"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B3:E4"/>
+    <mergeCell ref="B3:E3"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
